--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3656.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3656.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.277997354106817</v>
+        <v>1.532203912734985</v>
       </c>
       <c r="B1">
-        <v>1.568741246474818</v>
+        <v>1.738739490509033</v>
       </c>
       <c r="C1">
-        <v>2.182921702593061</v>
+        <v>1.517043948173523</v>
       </c>
       <c r="D1">
-        <v>6.542154908241538</v>
+        <v>1.432864904403687</v>
       </c>
       <c r="E1">
-        <v>4.198837217767413</v>
+        <v>0.8173864483833313</v>
       </c>
     </row>
   </sheetData>
